--- a/download/generated situation/état_des_taxes_xlsx/état_des_taxes_2_2022.xlsx
+++ b/download/generated situation/état_des_taxes_xlsx/état_des_taxes_2_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -749,9 +749,50 @@
         <v>45500</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>501/BIRANZARAN</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Point de vente</v>
+      </c>
+      <c r="C10" t="str">
+        <v>P3566465</v>
+      </c>
+      <c r="D10" t="str">
+        <v>VAVA VAVA</v>
+      </c>
+      <c r="E10" t="str">
+        <v>ds</v>
+      </c>
+      <c r="F10" t="str">
+        <v>trimestrielle</v>
+      </c>
+      <c r="G10">
+        <v>90000</v>
+      </c>
+      <c r="H10">
+        <v>60000</v>
+      </c>
+      <c r="I10">
+        <v>15</v>
+      </c>
+      <c r="J10">
+        <v>9000</v>
+      </c>
+      <c r="K10">
+        <v>9000</v>
+      </c>
+      <c r="L10">
+        <v>30000</v>
+      </c>
+      <c r="M10">
+        <v>81000</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M10"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_taxes_xlsx/état_des_taxes_2_2022.xlsx
+++ b/download/generated situation/état_des_taxes_xlsx/état_des_taxes_2_2022.xlsx
@@ -441,7 +441,7 @@
         <v>mensuelle</v>
       </c>
       <c r="G2">
-        <v>15400</v>
+        <v>7700</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -482,7 +482,7 @@
         <v>mensuelle</v>
       </c>
       <c r="G3">
-        <v>6600</v>
+        <v>3300</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -523,7 +523,7 @@
         <v>mensuelle</v>
       </c>
       <c r="G4">
-        <v>48000</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>36000</v>
@@ -564,7 +564,7 @@
         <v>annuelle</v>
       </c>
       <c r="G5">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>90000</v>
@@ -605,7 +605,7 @@
         <v>annuelle</v>
       </c>
       <c r="G6">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>90000</v>
@@ -687,7 +687,7 @@
         <v>annuelle</v>
       </c>
       <c r="G8">
-        <v>180000</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>180000</v>
@@ -728,7 +728,7 @@
         <v>mensuelle</v>
       </c>
       <c r="G9">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>30000</v>
@@ -769,7 +769,7 @@
         <v>trimestrielle</v>
       </c>
       <c r="G10">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>60000</v>

--- a/download/generated situation/état_des_taxes_xlsx/état_des_taxes_2_2022.xlsx
+++ b/download/generated situation/état_des_taxes_xlsx/état_des_taxes_2_2022.xlsx
@@ -441,7 +441,7 @@
         <v>mensuelle</v>
       </c>
       <c r="G2">
-        <v>7700</v>
+        <v>15400</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -482,7 +482,7 @@
         <v>mensuelle</v>
       </c>
       <c r="G3">
-        <v>3300</v>
+        <v>6600</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -523,7 +523,7 @@
         <v>mensuelle</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>48000</v>
       </c>
       <c r="H4">
         <v>36000</v>
@@ -564,7 +564,7 @@
         <v>annuelle</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="H5">
         <v>90000</v>
@@ -605,7 +605,7 @@
         <v>annuelle</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="H6">
         <v>90000</v>
@@ -687,7 +687,7 @@
         <v>annuelle</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>180000</v>
       </c>
       <c r="H8">
         <v>180000</v>
@@ -728,7 +728,7 @@
         <v>mensuelle</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="H9">
         <v>30000</v>
@@ -769,7 +769,7 @@
         <v>trimestrielle</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="H10">
         <v>60000</v>
